--- a/scripts/submitter_config_template.xlsx
+++ b/scripts/submitter_config_template.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NCBI_username</t>
+          <t>Username</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -471,7 +471,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NCBI_password</t>
+          <t>Password</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -536,7 +536,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Client_ID</t>
+          <t>Client-Id</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -549,7 +549,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>GISAID_username</t>
+          <t>Username</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -562,7 +562,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GISAID_password</t>
+          <t>Password</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
